--- a/micromechanics_indentationGUI/Examples/Example1/FusedSilica_tabHE_output.xlsx
+++ b/micromechanics_indentationGUI/Examples/Example1/FusedSilica_tabHE_output.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -70,6 +70,12 @@
     <t>Frame Compliance [µm/mN]</t>
   </si>
   <si>
+    <t>Start[100\% of Pmax ]</t>
+  </si>
+  <si>
+    <t>End[100\% of Pmax ]</t>
+  </si>
+  <si>
     <t>Tested Material</t>
   </si>
   <si>
@@ -85,9 +91,15 @@
     <t>0</t>
   </si>
   <si>
+    <t xml:space="preserve"> Unloading Range to Calculate Stiffness</t>
+  </si>
+  <si>
     <t>hc[µm]</t>
   </si>
   <si>
+    <t>hmax[µm]</t>
+  </si>
+  <si>
     <t>Pmax[mN]</t>
   </si>
   <si>
@@ -95,6 +107,12 @@
   </si>
   <si>
     <t>E[GPa]</t>
+  </si>
+  <si>
+    <t>X Position [µm]</t>
+  </si>
+  <si>
+    <t>Y Position [µm]</t>
   </si>
 </sst>
 </file>
@@ -452,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -484,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -500,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -537,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -545,7 +563,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -553,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -561,7 +579,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -569,7 +587,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -585,7 +603,31 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -595,111 +637,174 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.06840735366034102</v>
+        <v>0.06842417730834405</v>
       </c>
       <c r="B2">
-        <v>1.39238965773213</v>
+        <v>0.6408233022611903</v>
       </c>
       <c r="C2">
-        <v>12.14476524213377</v>
+        <v>1.39127018540564</v>
       </c>
       <c r="D2">
-        <v>76.79903316341873</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>12.1290343279081</v>
+      </c>
+      <c r="E2">
+        <v>76.75032662852857</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.1050023594217931</v>
+        <v>0.1050234586436766</v>
       </c>
       <c r="B3">
-        <v>2.78485755837963</v>
+        <v>0.6408233022611903</v>
       </c>
       <c r="C3">
-        <v>10.3095280940018</v>
+        <v>2.783738086053139</v>
       </c>
       <c r="D3">
-        <v>69.78033567040977</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>10.30124352425626</v>
+      </c>
+      <c r="E3">
+        <v>69.76542351376933</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>0.1587725280912264</v>
+        <v>0.1587854966438536</v>
       </c>
       <c r="B4">
-        <v>5.62549753362473</v>
+        <v>0.6408233022611903</v>
       </c>
       <c r="C4">
-        <v>9.108442777345374</v>
+        <v>5.624378061298239</v>
       </c>
       <c r="D4">
-        <v>71.79291296302533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>9.105142721658574</v>
+      </c>
+      <c r="E4">
+        <v>71.78597321860988</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>0.2257719280074917</v>
+        <v>0.2257814006163288</v>
       </c>
       <c r="B5">
-        <v>11.2515398243444</v>
+        <v>0.6408233022611903</v>
       </c>
       <c r="C5">
-        <v>9.009610038797858</v>
+        <v>11.25042035201791</v>
       </c>
       <c r="D5">
-        <v>70.84015134023343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>9.007957726022246</v>
+      </c>
+      <c r="E5">
+        <v>70.83682993364775</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>0.3188143190753684</v>
+        <v>0.3188209910004109</v>
       </c>
       <c r="B6">
-        <v>22.50390477057</v>
+        <v>0.6408233022611903</v>
       </c>
       <c r="C6">
-        <v>9.036830974464943</v>
+        <v>22.50278529824351</v>
       </c>
       <c r="D6">
-        <v>71.5781257483863</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>9.036003228670678</v>
+      </c>
+      <c r="E6">
+        <v>71.57646663268281</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
-        <v>0.4521576544663769</v>
+        <v>0.452162252020332</v>
       </c>
       <c r="B7">
-        <v>45.0014330551142</v>
+        <v>0.6408233022611903</v>
       </c>
       <c r="C7">
-        <v>8.984222210662463</v>
+        <v>45.0003135827877</v>
       </c>
       <c r="D7">
-        <v>73.11156308456953</v>
+        <v>8.983816019416679</v>
+      </c>
+      <c r="E7">
+        <v>73.11073185237625</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -709,111 +814,174 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.07216347906609982</v>
+        <v>0.07216093717806525</v>
       </c>
       <c r="B2">
-        <v>1.39251684420056</v>
+        <v>0.6462067751077712</v>
       </c>
       <c r="C2">
-        <v>10.91438947458047</v>
+        <v>1.392072336643785</v>
       </c>
       <c r="D2">
-        <v>74.65019167041658</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>10.91167416722397</v>
+      </c>
+      <c r="E2">
+        <v>74.62192045009148</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.1098641146005965</v>
+        <v>0.1098721940518058</v>
       </c>
       <c r="B3">
-        <v>2.78518052728838</v>
+        <v>0.6462067751077712</v>
       </c>
       <c r="C3">
-        <v>9.418365618355836</v>
+        <v>2.784736019731605</v>
       </c>
       <c r="D3">
-        <v>68.61122890693971</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>9.415477584794404</v>
+      </c>
+      <c r="E3">
+        <v>68.60578696614276</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>0.1637060108460747</v>
+        <v>0.1637052271443589</v>
       </c>
       <c r="B4">
-        <v>5.6252694512871</v>
+        <v>0.6462067751077712</v>
       </c>
       <c r="C4">
-        <v>8.56737928732637</v>
+        <v>5.624824943730325</v>
       </c>
       <c r="D4">
-        <v>70.48801224107213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>8.566784317388613</v>
+      </c>
+      <c r="E4">
+        <v>70.48157569541127</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>0.2317901647976939</v>
+        <v>0.2317937272161317</v>
       </c>
       <c r="B5">
-        <v>11.2496738580421</v>
+        <v>0.6462067751077712</v>
       </c>
       <c r="C5">
-        <v>8.54641227236946</v>
+        <v>11.24922935048532</v>
       </c>
       <c r="D5">
-        <v>70.76486983403517</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>8.54581189279943</v>
+      </c>
+      <c r="E5">
+        <v>70.76356634723074</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>0.3232963379430056</v>
+        <v>0.3232989000974095</v>
       </c>
       <c r="B6">
-        <v>22.5022663571161</v>
+        <v>0.6462067751077712</v>
       </c>
       <c r="C6">
-        <v>8.787363788632048</v>
+        <v>22.50182184955932</v>
       </c>
       <c r="D6">
-        <v>70.23810808440646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>8.787050926921733</v>
+      </c>
+      <c r="E6">
+        <v>70.23743809297649</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
-        <v>0.457004855884663</v>
+        <v>0.4570066821148598</v>
       </c>
       <c r="B7">
-        <v>45.0021239233238</v>
+        <v>0.6462067751077712</v>
       </c>
       <c r="C7">
-        <v>8.794786428021427</v>
+        <v>45.00167941576702</v>
       </c>
       <c r="D7">
-        <v>72.04090868410543</v>
+        <v>8.794629269388107</v>
+      </c>
+      <c r="E7">
+        <v>72.04058484118961</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -823,111 +991,174 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.07002855905586289</v>
+        <v>0.07005077317994055</v>
       </c>
       <c r="B2">
-        <v>1.39239799007316</v>
+        <v>0.6444728018306187</v>
       </c>
       <c r="C2">
-        <v>11.58902562100858</v>
+        <v>1.391050053736825</v>
       </c>
       <c r="D2">
-        <v>74.7496439316793</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>11.57046483368252</v>
+      </c>
+      <c r="E2">
+        <v>74.69512740571395</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.1081518401835388</v>
+        <v>0.1081766960428998</v>
       </c>
       <c r="B3">
-        <v>2.78498318661408</v>
+        <v>0.6444728018306187</v>
       </c>
       <c r="C3">
-        <v>9.718263419202934</v>
+        <v>2.783635250277745</v>
       </c>
       <c r="D3">
-        <v>68.879828018197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>9.709096489723379</v>
+      </c>
+      <c r="E3">
+        <v>68.86284506031254</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>0.1632305331201159</v>
+        <v>0.1632310659478837</v>
       </c>
       <c r="B4">
-        <v>5.62470195729713</v>
+        <v>0.6444728018306187</v>
       </c>
       <c r="C4">
-        <v>8.616494843338165</v>
+        <v>5.623354020960795</v>
       </c>
       <c r="D4">
-        <v>70.82943811483487</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>8.61437369703552</v>
+      </c>
+      <c r="E4">
+        <v>70.81173193769406</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>0.2279605762777274</v>
+        <v>0.227972062159031</v>
       </c>
       <c r="B5">
-        <v>11.2519705352075</v>
+        <v>0.6444728018306187</v>
       </c>
       <c r="C5">
-        <v>8.837776399838551</v>
+        <v>11.25062259887116</v>
       </c>
       <c r="D5">
-        <v>69.7434297347701</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>8.835827257748647</v>
+      </c>
+      <c r="E5">
+        <v>69.73952315801229</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>0.3218957150822343</v>
+        <v>0.321903349569029</v>
       </c>
       <c r="B6">
-        <v>22.5009248396812</v>
+        <v>0.6444728018306187</v>
       </c>
       <c r="C6">
-        <v>8.863472332849406</v>
+        <v>22.49957690334487</v>
       </c>
       <c r="D6">
-        <v>70.69946800061113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>8.862520964731084</v>
+      </c>
+      <c r="E6">
+        <v>70.69737930339478</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
-        <v>0.455103073387537</v>
+        <v>0.4551086496885928</v>
       </c>
       <c r="B7">
-        <v>45.0015262715505</v>
+        <v>0.6444728018306187</v>
       </c>
       <c r="C7">
-        <v>8.868325448920032</v>
+        <v>45.00017833521417</v>
       </c>
       <c r="D7">
-        <v>72.34565759181433</v>
+        <v>8.86784250117762</v>
+      </c>
+      <c r="E7">
+        <v>72.34467592607417</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -937,111 +1168,174 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.07034708866953285</v>
+        <v>0.0703335002163078</v>
       </c>
       <c r="B2">
-        <v>1.39238783914601</v>
+        <v>0.6463312999313308</v>
       </c>
       <c r="C2">
-        <v>11.48422994600866</v>
+        <v>1.391487869514805</v>
       </c>
       <c r="D2">
-        <v>75.63654323730131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>11.48124218953869</v>
+      </c>
+      <c r="E2">
+        <v>75.56973532208085</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.106918981929397</v>
+        <v>0.1069354170971862</v>
       </c>
       <c r="B3">
-        <v>2.78538420237521</v>
+        <v>0.6463312999313308</v>
       </c>
       <c r="C3">
-        <v>9.945105490066705</v>
+        <v>2.784484232744005</v>
       </c>
       <c r="D3">
-        <v>69.01187775362136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>9.938836430673099</v>
+      </c>
+      <c r="E3">
+        <v>69.0000430747201</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>0.1620680547051709</v>
+        <v>0.1620164849949159</v>
       </c>
       <c r="B4">
-        <v>5.62551920771831</v>
+        <v>0.6463312999313308</v>
       </c>
       <c r="C4">
-        <v>8.74181655817388</v>
+        <v>5.624619238087105</v>
       </c>
       <c r="D4">
-        <v>71.40402586463976</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>8.74598306469221</v>
+      </c>
+      <c r="E4">
+        <v>71.3578144837045</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>0.2299039270164851</v>
+        <v>0.2299114708350636</v>
       </c>
       <c r="B5">
-        <v>11.2509320115208</v>
+        <v>0.6463312999313308</v>
       </c>
       <c r="C5">
-        <v>8.688196540770049</v>
+        <v>11.25003204188959</v>
       </c>
       <c r="D5">
-        <v>70.69113516136449</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>8.686931469592114</v>
+      </c>
+      <c r="E5">
+        <v>70.68857963985789</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>0.3241029357502525</v>
+        <v>0.3241082925894239</v>
       </c>
       <c r="B6">
-        <v>22.5007501776675</v>
+        <v>0.6463312999313308</v>
       </c>
       <c r="C6">
-        <v>8.743090696526828</v>
+        <v>22.49985020803629</v>
       </c>
       <c r="D6">
-        <v>70.67461406326565</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>8.742451999925096</v>
+      </c>
+      <c r="E6">
+        <v>70.67332989118758</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
-        <v>0.4551750654229093</v>
+        <v>0.455178819655668</v>
       </c>
       <c r="B7">
-        <v>45.00796722519581</v>
+        <v>0.6463312999313308</v>
       </c>
       <c r="C7">
-        <v>8.86678928109278</v>
+        <v>45.00706725556459</v>
       </c>
       <c r="D7">
-        <v>71.61863817281105</v>
+        <v>8.866465722853807</v>
+      </c>
+      <c r="E7">
+        <v>71.61798312157568</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1051,111 +1345,174 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.05858301030729599</v>
+        <v>0.05859861099966666</v>
       </c>
       <c r="B2">
-        <v>1.39237280588081</v>
+        <v>0.6263882771418681</v>
       </c>
       <c r="C2">
-        <v>16.55945653834875</v>
+        <v>1.39109337331616</v>
       </c>
       <c r="D2">
-        <v>90.01988977278847</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>16.53543231279386</v>
+      </c>
+      <c r="E2">
+        <v>89.94547196515596</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.09411169749349918</v>
+        <v>0.09412259895333377</v>
       </c>
       <c r="B3">
-        <v>2.78504416394199</v>
+        <v>0.6263882771418681</v>
       </c>
       <c r="C3">
-        <v>12.83449509449383</v>
+        <v>2.78376473137734</v>
       </c>
       <c r="D3">
-        <v>79.04467875386564</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>12.82562751075517</v>
+      </c>
+      <c r="E3">
+        <v>79.01367931918227</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>0.1476220802587682</v>
+        <v>0.1476149932588025</v>
       </c>
       <c r="B4">
-        <v>5.62527478928241</v>
+        <v>0.6263882771418681</v>
       </c>
       <c r="C4">
-        <v>10.53598189751801</v>
+        <v>5.623995356717761</v>
       </c>
       <c r="D4">
-        <v>79.31615191468607</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>10.53459701596649</v>
+      </c>
+      <c r="E4">
+        <v>79.29190353713606</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>0.2120164556875012</v>
+        <v>0.212027288812672</v>
       </c>
       <c r="B5">
-        <v>11.25178095695</v>
+        <v>0.6263882771418681</v>
       </c>
       <c r="C5">
-        <v>10.21682711506629</v>
+        <v>11.25050152438535</v>
       </c>
       <c r="D5">
-        <v>76.6398770035171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>10.21462149366867</v>
+      </c>
+      <c r="E5">
+        <v>76.63559867475911</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>0.3047335307043756</v>
+        <v>0.304741077730381</v>
       </c>
       <c r="B6">
-        <v>22.4999083829636</v>
+        <v>0.6263882771418681</v>
       </c>
       <c r="C6">
-        <v>9.889496436621053</v>
+        <v>22.49862895039895</v>
       </c>
       <c r="D6">
-        <v>75.43950034338239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>9.888444281086256</v>
+      </c>
+      <c r="E6">
+        <v>75.43739911268322</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
-        <v>0.4338474318811481</v>
+        <v>0.4338527917478615</v>
       </c>
       <c r="B7">
-        <v>45.0067509427186</v>
+        <v>0.6263882771418681</v>
       </c>
       <c r="C7">
-        <v>9.759723539745384</v>
+        <v>45.00547151015395</v>
       </c>
       <c r="D7">
-        <v>74.88591942183912</v>
+        <v>9.759204957397245</v>
+      </c>
+      <c r="E7">
+        <v>74.88488851073265</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1165,111 +1522,174 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.063053180308899</v>
+        <v>0.06308987056449375</v>
       </c>
       <c r="B2">
-        <v>1.39241839082934</v>
+        <v>0.6369805827970869</v>
       </c>
       <c r="C2">
-        <v>14.29518147781781</v>
+        <v>1.39094774101406</v>
       </c>
       <c r="D2">
-        <v>80.41944019421726</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>14.26347864841207</v>
+      </c>
+      <c r="E2">
+        <v>80.36085726744619</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.1014799163933511</v>
+        <v>0.1015059183857958</v>
       </c>
       <c r="B3">
-        <v>2.78464306547932</v>
+        <v>0.6369805827970869</v>
       </c>
       <c r="C3">
-        <v>11.03680195241651</v>
+        <v>2.78317241566404</v>
       </c>
       <c r="D3">
-        <v>72.67416112890618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>11.02532238529789</v>
+      </c>
+      <c r="E3">
+        <v>72.65193433671284</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>0.1559259083166627</v>
+        <v>0.1559440118526735</v>
       </c>
       <c r="B4">
-        <v>5.62514221962147</v>
+        <v>0.6369805827970869</v>
       </c>
       <c r="C4">
-        <v>9.443453746245048</v>
+        <v>5.62367156980619</v>
       </c>
       <c r="D4">
-        <v>74.57595645100356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>9.438792948390038</v>
+      </c>
+      <c r="E4">
+        <v>74.56738165155549</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>0.2206333019920306</v>
+        <v>0.220645776512105</v>
       </c>
       <c r="B5">
-        <v>11.2514473893335</v>
+        <v>0.6369805827970869</v>
       </c>
       <c r="C5">
-        <v>9.434093585230622</v>
+        <v>11.24997673951822</v>
       </c>
       <c r="D5">
-        <v>72.60985720118141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>9.431793907407489</v>
+      </c>
+      <c r="E5">
+        <v>72.60529395200709</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>0.3146848730752313</v>
+        <v>0.3146936621310003</v>
       </c>
       <c r="B6">
-        <v>22.4993251343761</v>
+        <v>0.6369805827970869</v>
       </c>
       <c r="C6">
-        <v>9.273670768377713</v>
+        <v>22.49785448456082</v>
       </c>
       <c r="D6">
-        <v>72.87931498346364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>9.272546636319731</v>
+      </c>
+      <c r="E6">
+        <v>72.87709254910085</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
-        <v>0.4448038692575581</v>
+        <v>0.444809196870809</v>
       </c>
       <c r="B7">
-        <v>45.0069361011281</v>
+        <v>0.6369805827970869</v>
       </c>
       <c r="C7">
-        <v>9.28487906871641</v>
+        <v>45.00546545131281</v>
       </c>
       <c r="D7">
-        <v>73.19431376292698</v>
+        <v>9.284353268386802</v>
+      </c>
+      <c r="E7">
+        <v>73.1930000260113</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1279,111 +1699,174 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.07294605225999032</v>
+        <v>0.07293709675505677</v>
       </c>
       <c r="B2">
-        <v>1.39204088951284</v>
+        <v>0.6491365211518426</v>
       </c>
       <c r="C2">
-        <v>10.67781325247954</v>
+        <v>1.391453645200214</v>
       </c>
       <c r="D2">
-        <v>71.89691154673544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>10.67592990890615</v>
+      </c>
+      <c r="E2">
+        <v>71.85536077394417</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.1109168967140706</v>
+        <v>0.1109213773194798</v>
       </c>
       <c r="B3">
-        <v>2.78458980725518</v>
+        <v>0.6491365211518426</v>
       </c>
       <c r="C3">
-        <v>9.238463012503971</v>
+        <v>2.784002562942554</v>
       </c>
       <c r="D3">
-        <v>67.0996068435106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>9.235768513490759</v>
+      </c>
+      <c r="E3">
+        <v>67.08790810014058</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>0.1655538731537933</v>
+        <v>0.1655572690236203</v>
       </c>
       <c r="B4">
-        <v>5.62505610606752</v>
+        <v>0.6491365211518426</v>
       </c>
       <c r="C4">
-        <v>8.37687592840075</v>
+        <v>5.624468861754894</v>
       </c>
       <c r="D4">
-        <v>69.59194675289572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>8.375657790325109</v>
+      </c>
+      <c r="E4">
+        <v>69.58643282654336</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>0.2342538589447209</v>
+        <v>0.2342588573807687</v>
       </c>
       <c r="B5">
-        <v>11.2496102885881</v>
+        <v>0.6491365211518426</v>
       </c>
       <c r="C5">
-        <v>8.367541704954874</v>
+        <v>11.24902304427548</v>
       </c>
       <c r="D5">
-        <v>69.43982355576189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>8.366747850436273</v>
+      </c>
+      <c r="E5">
+        <v>69.43825874991779</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>0.325540299575891</v>
+        <v>0.3255438344794062</v>
       </c>
       <c r="B6">
-        <v>22.5030007117251</v>
+        <v>0.6491365211518426</v>
       </c>
       <c r="C6">
-        <v>8.666920880472922</v>
+        <v>22.50241346741247</v>
       </c>
       <c r="D6">
-        <v>69.69069043995209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>8.666506493362029</v>
+      </c>
+      <c r="E6">
+        <v>69.68986411021163</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
-        <v>0.4573398397750357</v>
+        <v>0.4573423137968723</v>
       </c>
       <c r="B7">
-        <v>44.9993951183421</v>
+        <v>0.6491365211518426</v>
       </c>
       <c r="C7">
-        <v>8.781374948287153</v>
+        <v>44.99880787402947</v>
       </c>
       <c r="D7">
-        <v>71.05308141818546</v>
+        <v>8.781165345616859</v>
+      </c>
+      <c r="E7">
+        <v>71.05266244919699</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1393,111 +1876,174 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.07369619851011834</v>
+        <v>0.07371820239624396</v>
       </c>
       <c r="B2">
-        <v>1.39228916686676</v>
+        <v>0.6504346764646088</v>
       </c>
       <c r="C2">
-        <v>10.46340865752077</v>
+        <v>1.390951862425583</v>
       </c>
       <c r="D2">
-        <v>70.15011808214618</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>10.44711903227843</v>
+      </c>
+      <c r="E2">
+        <v>70.10030657930226</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.1136365855303128</v>
+        <v>0.1136608763408643</v>
       </c>
       <c r="B3">
-        <v>2.784879192928881</v>
+        <v>0.6504346764646088</v>
       </c>
       <c r="C3">
-        <v>8.802457243860232</v>
+        <v>2.783541888487703</v>
       </c>
       <c r="D3">
-        <v>66.17249717520821</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>8.794470095551409</v>
+      </c>
+      <c r="E3">
+        <v>66.15723246255033</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>0.1668961572715251</v>
+        <v>0.1669122310090322</v>
       </c>
       <c r="B4">
-        <v>5.62464476016869</v>
+        <v>0.6504346764646088</v>
       </c>
       <c r="C4">
-        <v>8.24207077694618</v>
+        <v>5.623307455727513</v>
       </c>
       <c r="D4">
-        <v>68.08181444527611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>8.238524180614453</v>
+      </c>
+      <c r="E4">
+        <v>68.07468392146956</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>0.2343790521895631</v>
+        <v>0.2343903352042274</v>
       </c>
       <c r="B5">
-        <v>11.2503647146578</v>
+        <v>0.6504346764646088</v>
       </c>
       <c r="C5">
-        <v>8.359165619071979</v>
+        <v>11.24902741021662</v>
       </c>
       <c r="D5">
-        <v>68.71725157305201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>8.357367317480659</v>
+      </c>
+      <c r="E5">
+        <v>68.71360431737195</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>0.3278823365178182</v>
+        <v>0.3278902895742899</v>
       </c>
       <c r="B6">
-        <v>22.5009152698204</v>
+        <v>0.6504346764646088</v>
       </c>
       <c r="C6">
-        <v>8.542757087458762</v>
+        <v>22.49957796537922</v>
       </c>
       <c r="D6">
-        <v>69.37821360534507</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>8.541834979383594</v>
+      </c>
+      <c r="E6">
+        <v>69.37633608813513</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
-        <v>0.4597988113932754</v>
+        <v>0.4598043058982691</v>
       </c>
       <c r="B7">
-        <v>44.9993527420545</v>
+        <v>0.6504346764646088</v>
       </c>
       <c r="C7">
-        <v>8.687693569485273</v>
+        <v>44.99801543761332</v>
       </c>
       <c r="D7">
-        <v>71.20414601955601</v>
+        <v>8.687227763414473</v>
+      </c>
+      <c r="E7">
+        <v>71.20317862588294</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1507,111 +2053,174 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.07188739089436004</v>
+        <v>0.07191077391393519</v>
       </c>
       <c r="B2">
-        <v>1.39234609797581</v>
+        <v>0.6450643424373779</v>
       </c>
       <c r="C2">
-        <v>10.99703670885886</v>
+        <v>1.390743661463289</v>
       </c>
       <c r="D2">
-        <v>71.55181732883545</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>10.97723797739909</v>
+      </c>
+      <c r="E2">
+        <v>71.48693742503534</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.110948675426506</v>
+        <v>0.1109774607124749</v>
       </c>
       <c r="B3">
-        <v>2.78514121554402</v>
+        <v>0.6450643424373779</v>
       </c>
       <c r="C3">
-        <v>9.234999842513655</v>
+        <v>2.783538779031498</v>
       </c>
       <c r="D3">
-        <v>68.52435696103585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>9.224899103820599</v>
+      </c>
+      <c r="E3">
+        <v>68.50505049412628</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>0.1646151700349439</v>
+        <v>0.1646341720839422</v>
       </c>
       <c r="B4">
-        <v>5.62538754416582</v>
+        <v>0.6450643424373779</v>
       </c>
       <c r="C4">
-        <v>8.473184303312344</v>
+        <v>5.623785107653299</v>
       </c>
       <c r="D4">
-        <v>70.41461265335722</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>8.468815372119623</v>
+      </c>
+      <c r="E4">
+        <v>70.40585021691788</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>0.2301263775480202</v>
+        <v>0.2301399968684052</v>
       </c>
       <c r="B5">
-        <v>11.2504332520004</v>
+        <v>0.6450643424373779</v>
       </c>
       <c r="C5">
-        <v>8.671023446189473</v>
+        <v>11.24883081548788</v>
       </c>
       <c r="D5">
-        <v>69.70914915677103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>8.668762305247858</v>
+      </c>
+      <c r="E5">
+        <v>69.70462709399547</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>0.3239547773003535</v>
+        <v>0.3239598856827001</v>
       </c>
       <c r="B6">
-        <v>22.5003249440966</v>
+        <v>0.6450643424373779</v>
       </c>
       <c r="C6">
-        <v>8.750924324229873</v>
+        <v>22.49872250758408</v>
       </c>
       <c r="D6">
-        <v>70.50064689807694</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>8.75002514044737</v>
+      </c>
+      <c r="E6">
+        <v>70.49693712016459</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
-        <v>0.4557395964047353</v>
+        <v>0.455741411915185</v>
       </c>
       <c r="B7">
-        <v>45.0067245423232</v>
+        <v>0.6450643424373779</v>
       </c>
       <c r="C7">
-        <v>8.84459184733301</v>
+        <v>45.00512210581068</v>
       </c>
       <c r="D7">
-        <v>72.38873541705506</v>
+        <v>8.844206476407196</v>
+      </c>
+      <c r="E7">
+        <v>72.38642391413444</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1621,111 +2230,174 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.07382609759988915</v>
+        <v>0.07382150254821707</v>
       </c>
       <c r="B2">
-        <v>1.39230201483294</v>
+        <v>0.6491078943630433</v>
       </c>
       <c r="C2">
-        <v>10.42671594573032</v>
+        <v>1.391391670492588</v>
       </c>
       <c r="D2">
-        <v>71.36122315977516</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>10.42119575250469</v>
+      </c>
+      <c r="E2">
+        <v>71.3067522574341</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.1107664265409799</v>
+        <v>0.1107830690167088</v>
       </c>
       <c r="B3">
-        <v>2.78471434931772</v>
+        <v>0.6491078943630433</v>
       </c>
       <c r="C3">
-        <v>9.26399427906221</v>
+        <v>2.783804004977368</v>
       </c>
       <c r="D3">
-        <v>66.33757172292371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>9.25818354565188</v>
+      </c>
+      <c r="E3">
+        <v>66.32644022247966</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>0.1645213975294486</v>
+        <v>0.1645295369275734</v>
       </c>
       <c r="B4">
-        <v>5.6252453709379</v>
+        <v>0.6491078943630433</v>
       </c>
       <c r="C4">
-        <v>8.48263161167624</v>
+        <v>5.624335026597548</v>
       </c>
       <c r="D4">
-        <v>68.78601863634937</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>8.480419723427953</v>
+      </c>
+      <c r="E4">
+        <v>68.77924848104745</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>0.2320362042365509</v>
+        <v>0.2320438738418454</v>
       </c>
       <c r="B5">
-        <v>11.2515603668067</v>
+        <v>0.6491078943630433</v>
       </c>
       <c r="C5">
-        <v>8.529727664854523</v>
+        <v>11.25065002246635</v>
       </c>
       <c r="D5">
-        <v>68.592992440976</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>8.528473738420484</v>
+      </c>
+      <c r="E5">
+        <v>68.59041769628213</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>0.3252545241656642</v>
+        <v>0.3252600406837859</v>
       </c>
       <c r="B6">
-        <v>22.5023172042507</v>
+        <v>0.6491078943630433</v>
       </c>
       <c r="C6">
-        <v>8.681893733733121</v>
+        <v>22.50140685991035</v>
       </c>
       <c r="D6">
-        <v>69.34862863833162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>8.681248021487971</v>
+      </c>
+      <c r="E6">
+        <v>69.34734837075683</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
-        <v>0.4590022247796048</v>
+        <v>0.4590053733804841</v>
       </c>
       <c r="B7">
-        <v>45.0054053121755</v>
+        <v>0.6491078943630433</v>
       </c>
       <c r="C7">
-        <v>8.719046859925896</v>
+        <v>45.00449496783514</v>
       </c>
       <c r="D7">
-        <v>71.36699628665134</v>
+        <v>8.718750880081686</v>
+      </c>
+      <c r="E7">
+        <v>71.36619715442528</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1735,111 +2407,174 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.06967721156102799</v>
+        <v>0.06969457926362668</v>
       </c>
       <c r="B2">
-        <v>1.39215029925337</v>
+        <v>0.6458250053116428</v>
       </c>
       <c r="C2">
-        <v>11.70411327719212</v>
+        <v>1.390513557845347</v>
       </c>
       <c r="D2">
-        <v>72.02097026185849</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>11.68452714944701</v>
+      </c>
+      <c r="E2">
+        <v>71.946370933791</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.1111148977652494</v>
+        <v>0.1111377699902014</v>
       </c>
       <c r="B3">
-        <v>2.78469108316093</v>
+        <v>0.6458250053116428</v>
       </c>
       <c r="C3">
-        <v>9.205902220600223</v>
+        <v>2.783054341752906</v>
       </c>
       <c r="D3">
-        <v>69.84779736994287</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>9.196704777446127</v>
+      </c>
+      <c r="E3">
+        <v>69.82313384879907</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>0.1642075246196106</v>
+        <v>0.1642272224905</v>
       </c>
       <c r="B4">
-        <v>5.624973932575549</v>
+        <v>0.6458250053116428</v>
       </c>
       <c r="C4">
-        <v>8.514679810940383</v>
+        <v>5.623337191167527</v>
       </c>
       <c r="D4">
-        <v>69.91331994030389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>8.51016039778297</v>
+      </c>
+      <c r="E4">
+        <v>69.90440529659597</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>0.2299717704025015</v>
+        <v>0.2299854499883079</v>
       </c>
       <c r="B5">
-        <v>11.2517903182292</v>
+        <v>0.6458250053116428</v>
       </c>
       <c r="C5">
-        <v>8.683733542190961</v>
+        <v>11.25015357682117</v>
       </c>
       <c r="D5">
-        <v>69.83587697385623</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>8.681437523274452</v>
+      </c>
+      <c r="E5">
+        <v>69.83115452889848</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>0.3250647229781097</v>
+        <v>0.3250744059363948</v>
       </c>
       <c r="B6">
-        <v>22.5026246504491</v>
+        <v>0.6458250053116428</v>
       </c>
       <c r="C6">
-        <v>8.692153948007002</v>
+        <v>22.50098790904108</v>
       </c>
       <c r="D6">
-        <v>70.92101703276519</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>8.691003939930232</v>
+      </c>
+      <c r="E6">
+        <v>70.91869412791908</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
-        <v>0.4564076906042297</v>
+        <v>0.4564143430477601</v>
       </c>
       <c r="B7">
-        <v>45.0059273232245</v>
+        <v>0.6458250053116428</v>
       </c>
       <c r="C7">
-        <v>8.818560983891752</v>
+        <v>45.00429058181648</v>
       </c>
       <c r="D7">
-        <v>72.11800325525768</v>
+        <v>8.817983219426555</v>
+      </c>
+      <c r="E7">
+        <v>72.11679007474426</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1849,111 +2584,174 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.07234183692599311</v>
+        <v>0.07235150060232642</v>
       </c>
       <c r="B2">
-        <v>1.39251243379531</v>
+        <v>0.6484131840802916</v>
       </c>
       <c r="C2">
-        <v>10.86060284991614</v>
+        <v>1.391221849090488</v>
       </c>
       <c r="D2">
-        <v>72.34660249453435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>10.84763888570713</v>
+      </c>
+      <c r="E2">
+        <v>72.28510019337894</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.1113681028054635</v>
+        <v>0.1113895811366137</v>
       </c>
       <c r="B3">
-        <v>2.78477011099986</v>
+        <v>0.6484131840802916</v>
       </c>
       <c r="C3">
-        <v>9.164349044813749</v>
+        <v>2.783479526295038</v>
       </c>
       <c r="D3">
-        <v>67.933773477074</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>9.156569690491381</v>
+      </c>
+      <c r="E3">
+        <v>67.91695906222319</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>0.1643668181762018</v>
+        <v>0.1643820892486974</v>
       </c>
       <c r="B4">
-        <v>5.625321113305499</v>
+        <v>0.6484131840802916</v>
       </c>
       <c r="C4">
-        <v>8.49870858694522</v>
+        <v>5.624030528600678</v>
       </c>
       <c r="D4">
-        <v>69.28204031468225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>8.495180155653289</v>
+      </c>
+      <c r="E4">
+        <v>69.27479279084942</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>0.2329509522388787</v>
+        <v>0.2329616221602758</v>
       </c>
       <c r="B5">
-        <v>11.2500308754821</v>
+        <v>0.6484131840802916</v>
       </c>
       <c r="C5">
-        <v>8.461719990808779</v>
+        <v>11.24874029077728</v>
       </c>
       <c r="D5">
-        <v>69.47590279174808</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>8.459974269301684</v>
+      </c>
+      <c r="E5">
+        <v>69.47225709648026</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>0.3266623341803856</v>
+        <v>0.3266699386992273</v>
       </c>
       <c r="B6">
-        <v>22.5032552568278</v>
+        <v>0.6484131840802916</v>
       </c>
       <c r="C6">
-        <v>8.60758143266232</v>
+        <v>22.50196467212297</v>
       </c>
       <c r="D6">
-        <v>70.21655766958654</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>8.60668705655066</v>
+      </c>
+      <c r="E6">
+        <v>70.21472514151272</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
-        <v>0.4587731123981702</v>
+        <v>0.4587782242811516</v>
       </c>
       <c r="B7">
-        <v>45.0000815013383</v>
+        <v>0.6484131840802916</v>
       </c>
       <c r="C7">
-        <v>8.726725229876182</v>
+        <v>44.99879091663348</v>
       </c>
       <c r="D7">
-        <v>71.56538116221917</v>
+        <v>8.726280484435968</v>
+      </c>
+      <c r="E7">
+        <v>71.56440100847423</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
